--- a/Score.xlsx
+++ b/Score.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D9D1C9-2562-6846-833C-AE62F38F0C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD173EA1-C571-8E4F-B2D9-938B5E00D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="740" windowWidth="27420" windowHeight="17260" xr2:uid="{729EF2BC-D27B-F54A-8E9C-D1F1549EB746}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Môn học</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Luận Văn</t>
+  </si>
+  <si>
+    <t>7.6</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,10 +248,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -268,18 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,7 +592,7 @@
   <dimension ref="C3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,10 +604,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -624,22 +618,22 @@
       </c>
       <c r="F4" s="3">
         <f>AVERAGE(F8:F26)</f>
-        <v>8.5</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -653,7 +647,7 @@
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
@@ -665,7 +659,7 @@
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
@@ -677,70 +671,56 @@
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="3:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="3:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="3:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5">
-        <v>9</v>
-      </c>
-    </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="9"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="10"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="13">
-        <v>4</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="19" spans="3:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -754,7 +734,7 @@
       </c>
     </row>
     <row r="20" spans="3:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="11"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
@@ -766,38 +746,38 @@
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="11"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="5">
         <v>4</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="11"/>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="5">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="6">
         <v>13</v>
       </c>
     </row>

--- a/Score.xlsx
+++ b/Score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD173EA1-C571-8E4F-B2D9-938B5E00D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35BA6AB-31BD-184F-8694-32E89BA8D93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="740" windowWidth="27420" windowHeight="17260" xr2:uid="{729EF2BC-D27B-F54A-8E9C-D1F1549EB746}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Môn học</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>7.6</t>
+  </si>
+  <si>
+    <t>Hệ Thống Multimedia</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -293,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +339,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -439,7 +445,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,7 +598,7 @@
   <dimension ref="C3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,8 +623,8 @@
         <v>60</v>
       </c>
       <c r="F4" s="3">
-        <f>AVERAGE(F8:F26)</f>
-        <v>8.3333333333333339</v>
+        <f>AVERAGE(F8:F22)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
@@ -747,13 +753,15 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="12"/>
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2"/>
+      <c r="D21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="13">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="12"/>

--- a/Score.xlsx
+++ b/Score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mt/notebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35BA6AB-31BD-184F-8694-32E89BA8D93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DFD3AA-83E6-E04A-96BF-234BE5626D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="740" windowWidth="27420" windowHeight="17260" xr2:uid="{729EF2BC-D27B-F54A-8E9C-D1F1549EB746}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Môn học</t>
   </si>
@@ -97,9 +97,6 @@
 (Min: 3)</t>
   </si>
   <si>
-    <t>Đăng Ký Thêm</t>
-  </si>
-  <si>
     <t>Tự chọn 
 (4)</t>
   </si>
@@ -114,6 +111,12 @@
   </si>
   <si>
     <t>Hệ Thống Multimedia</t>
+  </si>
+  <si>
+    <t>Xử Lý Ngôn Ngữ Tự Nhiên Nâng Cao</t>
+  </si>
+  <si>
+    <t>Phân Tích Dữ Liệu Thông Minh</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,9 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,7 +598,7 @@
   <dimension ref="C3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="142" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -718,7 +718,7 @@
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C16" s="11"/>
       <c r="D16" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5">
         <v>4</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="19" spans="3:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="12"/>
-      <c r="D21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2">
         <v>4</v>
       </c>
       <c r="F21" s="2">
@@ -766,7 +766,7 @@
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="12"/>
       <c r="D22" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5">
         <v>4</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="6">
         <v>3</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D26" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="6">
         <v>13</v>
